--- a/app/excel/A_GIVEN_B_BLANK.xlsx
+++ b/app/excel/A_GIVEN_B_BLANK.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="67">
   <si>
     <t>Comment</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,11 +118,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>English</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sound</t>
+    <t>Speaker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -130,7 +138,503 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>M2</t>
+    <t>F1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Translate from Polish into English.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Where is your brother?</t>
+  </si>
+  <si>
+    <t>How much money have you got?</t>
+  </si>
+  <si>
+    <t>How much money do you have?</t>
+  </si>
+  <si>
+    <t>Are you very tired?</t>
+  </si>
+  <si>
+    <t>Do you speak Polish?</t>
+  </si>
+  <si>
+    <t>Are you speaking Polish?</t>
+  </si>
+  <si>
+    <t>Can you swim well?</t>
+  </si>
+  <si>
+    <t>Can you lend me these shoes?</t>
+  </si>
+  <si>
+    <t>Can you lend me those shoes?</t>
+  </si>
+  <si>
+    <t>Can you lend me these boots?</t>
+  </si>
+  <si>
+    <t>Can you lend me those boots?</t>
+  </si>
+  <si>
+    <t>Do you want to read this book?</t>
+  </si>
+  <si>
+    <t>Do you want to read that book?</t>
+  </si>
+  <si>
+    <t>Do you like modern art?</t>
+  </si>
+  <si>
+    <t>Where are you going?</t>
+  </si>
+  <si>
+    <t>Where are you going to?</t>
+  </si>
+  <si>
+    <t>What does your dog eat?</t>
+  </si>
+  <si>
+    <t>Must you really go?</t>
+  </si>
+  <si>
+    <t>Must you really leave?</t>
+  </si>
+  <si>
+    <t>Do you really have to go?</t>
+  </si>
+  <si>
+    <t>Do you really have to leave?</t>
+  </si>
+  <si>
+    <t>Polish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B alternative III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are you into modern art?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Dok</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ą</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d idziesz?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Ile masz pieni</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ę</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dzy?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Czy lubisz sztuk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ę</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nowoczesn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ą</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Czy umiesz dobrze p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ł</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ywa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ć</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gdzie jest twój brat?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Czy mówisz po polsku?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Co twój pies jada?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Czy jeste</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ś</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> bardzo zm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ę</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>czony?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Czy naprawd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ę</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> musisz i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ść</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Czy chcesz przeczyta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ć</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ę</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ksi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ąż</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ę</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Czy mo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ż</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>esz po</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ż</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yczy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ć</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> mi te buty?</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -138,7 +642,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +665,30 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -186,11 +714,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -487,28 +1021,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="2" width="35.625" customWidth="1"/>
-    <col min="3" max="5" width="9.75" customWidth="1"/>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
-    <col min="7" max="7" width="7.875" customWidth="1"/>
-    <col min="8" max="8" width="6.875" customWidth="1"/>
-    <col min="9" max="9" width="9.875" customWidth="1"/>
-    <col min="10" max="10" width="11.875" customWidth="1"/>
-    <col min="11" max="11" width="17.75" customWidth="1"/>
-    <col min="12" max="12" width="16.125" customWidth="1"/>
-    <col min="13" max="13" width="7.875" customWidth="1"/>
+    <col min="3" max="3" width="9.75" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="8.625" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="8.75" customWidth="1"/>
+    <col min="8" max="8" width="11.875" customWidth="1"/>
+    <col min="9" max="10" width="17.75" customWidth="1"/>
+    <col min="11" max="11" width="18.125" customWidth="1"/>
+    <col min="12" max="12" width="7.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -519,37 +1053,40 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>21</v>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>1</v>
       </c>
@@ -560,205 +1097,563 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" t="s">
         <v>9</v>
       </c>
-      <c r="M2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
       <c r="H3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" t="s">
         <v>11</v>
       </c>
-      <c r="M3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" t="s">
         <v>13</v>
       </c>
-      <c r="M4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" t="s">
         <v>15</v>
       </c>
-      <c r="M5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="L5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" t="s">
         <v>9</v>
       </c>
-      <c r="M6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="L6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" t="s">
         <v>18</v>
       </c>
-      <c r="M7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="L7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="C8">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" t="s">
         <v>20</v>
       </c>
-      <c r="M8" t="s">
-        <v>22</v>
+      <c r="L8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L14" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14">
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>47</v>
+      </c>
+      <c r="L17" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14">
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>48</v>
+      </c>
+      <c r="L18" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14">
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J19" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19" t="s">
+        <v>50</v>
+      </c>
+      <c r="L19" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
